--- a/Andy Lucky-13218058/Quiz 4/Graph.xlsx
+++ b/Andy Lucky-13218058/Quiz 4/Graph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITB ELEKTRO\Sem 4 20192020\PMC\Code\02112020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repository\pmc\Andy Lucky-13218058\Quiz 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E410A9C-0E34-4971-91DB-05511B7684F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62CE17-C8BD-4F9F-AD66-917FD2AA40C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="-120" windowWidth="19665" windowHeight="11760" xr2:uid="{0E982CF7-2329-4309-9C2A-03FB34B6C485}"/>
   </bookViews>
@@ -181,9 +181,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Tegangan Kapasitor</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -7484,8 +7481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4B7A2A-C6EE-48C2-ABF8-DC8FBF2DFE94}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
